--- a/Data/Input/Excel sheet_link sharing - Copy.xlsx
+++ b/Data/Input/Excel sheet_link sharing - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hr_Process\RoboticEnterpriseFramework_Hr_Process\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AE1E75-E766-4E1F-8138-B3100697A2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248649A9-2110-4832-AA68-4182061EB7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A1F5C679-9B05-445A-BEF0-D75C4B198D42}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="208">
   <si>
     <t>SrNo</t>
   </si>
@@ -613,21 +613,6 @@
     <t>3:00-4:00 PM</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Shrushti</t>
-  </si>
-  <si>
-    <t>Isha</t>
-  </si>
-  <si>
-    <t>Ranjit</t>
-  </si>
-  <si>
-    <t>Vivek</t>
-  </si>
-  <si>
     <t>Suhil</t>
   </si>
   <si>
@@ -647,6 +632,33 @@
   </si>
   <si>
     <t>shrushtichanchad11@gmail.com</t>
+  </si>
+  <si>
+    <t>Shrushti Chanchad</t>
+  </si>
+  <si>
+    <t>Isha jiyani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ranjit Gupta</t>
+  </si>
+  <si>
+    <t>Ranjit Gupta</t>
+  </si>
+  <si>
+    <t>Harsh godhasara</t>
+  </si>
+  <si>
+    <t>Interviewer_Email</t>
+  </si>
+  <si>
+    <t>Position_Applied</t>
+  </si>
+  <si>
+    <t>Optional_Attendees</t>
+  </si>
+  <si>
+    <t>Interview_round</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1141,7 @@
   <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,18 +3264,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B63432A-BD3D-4756-AA70-F1D40B0CEF4C}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3280,30 +3293,36 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>32</v>
@@ -3312,33 +3331,35 @@
         <v>8317649828</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>37</v>
@@ -3347,33 +3368,35 @@
         <v>9403838335</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
       <c r="B4" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>40</v>
@@ -3382,33 +3405,35 @@
         <v>9446825203</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>44</v>
@@ -3417,33 +3442,35 @@
         <v>45</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
@@ -3452,33 +3479,35 @@
         <v>9347867323</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="M6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>25</v>
@@ -3487,33 +3516,35 @@
         <v>26</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>30</v>
@@ -3522,33 +3553,35 @@
         <v>9844042290</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>51</v>
@@ -3557,33 +3590,35 @@
         <v>7981464861</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>53</v>
@@ -3592,24 +3627,26 @@
         <v>54</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="I10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
